--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EusebiuDam\Desktop\Faculta Anul 3\Anul3Sem2\VVSS\ProiectEchipa\VVSS-Inventory-GlitchHunters\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5036CE14-DE56-4450-8589-8BD2D934E36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE09A943-4136-400D-A86B-66611D1D06E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="30240" windowHeight="17790" tabRatio="650" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="30240" windowHeight="17790" tabRatio="650" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="145">
   <si>
     <t>do not print this form</t>
   </si>
@@ -242,10 +242,13 @@
     <t>Tool used:</t>
   </si>
   <si>
+    <t>SonarLint</t>
+  </si>
+  <si>
     <t>David Simonel Olimpiu</t>
   </si>
   <si>
-    <t xml:space="preserve">Mihai </t>
+    <t>15/03/2024</t>
   </si>
   <si>
     <t>File, Line</t>
@@ -1706,7 +1709,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2075,8 +2078,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2470,7 +2473,7 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -2607,8 +2610,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="128" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView zoomScale="128" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2682,7 +2685,9 @@
       <c r="C4" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="28" t="s">
+        <v>67</v>
+      </c>
       <c r="E4" s="28"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -2690,7 +2695,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" s="16">
         <v>232</v>
@@ -2702,7 +2707,9 @@
       <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="19"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -2710,9 +2717,11 @@
         <v>12</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="J5" s="16">
+        <v>232</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17"/>
@@ -2720,7 +2729,9 @@
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="19" t="s">
+        <v>69</v>
+      </c>
       <c r="E6" s="19"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -2734,16 +2745,16 @@
         <v>16</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17"/>
@@ -2756,16 +2767,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
@@ -2779,16 +2790,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -2802,16 +2813,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -2825,16 +2836,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -2848,16 +2859,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -2871,16 +2882,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -2894,16 +2905,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -2917,16 +2928,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -2940,16 +2951,16 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
@@ -2963,16 +2974,16 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
@@ -2986,16 +2997,16 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -3009,16 +3020,16 @@
         <v>12</v>
       </c>
       <c r="C21" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="34" t="s">
         <v>117</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>116</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
@@ -3032,16 +3043,16 @@
         <v>13</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
@@ -3055,16 +3066,16 @@
         <v>14</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
@@ -3078,16 +3089,16 @@
         <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F24" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
@@ -3101,16 +3112,16 @@
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -3124,16 +3135,16 @@
         <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
@@ -3147,16 +3158,16 @@
         <v>18</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
@@ -3170,16 +3181,16 @@
         <v>19</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
@@ -3202,7 +3213,7 @@
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D30" s="37"/>
       <c r="E30" s="35">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EusebiuDam\Desktop\Faculta Anul 3\Anul3Sem2\VVSS\ProiectEchipa\VVSS-Inventory-GlitchHunters\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonel-olimpiudavid/Documents/personal/VVSS-Inventory-GlitchHunters/Docs/Lab01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE09A943-4136-400D-A86B-66611D1D06E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C689A5D-3454-224A-B27E-20FF649DBDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="30240" windowHeight="17790" tabRatio="650" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="157">
   <si>
     <t>do not print this form</t>
   </si>
@@ -705,12 +705,48 @@
   <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
   </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>Există mesaje de eroare în Controllers. Spre exemplu selectezi Delete in Parts, nu se intampla nimic in UI, iar in consola apar erori.</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>Se folosesc șabloanele Observer și MVC.</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>Part, Product, Inventory</t>
+  </si>
+  <si>
+    <t>Unele denumiri nu reflectă atribuțiile câmpurilor. Denumiri inconsistente de-a lungul claselor.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -928,6 +964,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -966,24 +1015,20 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,19 +1343,19 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5"/>
-    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="57.42578125" style="5" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="57.5" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.83203125" style="5"/>
     <col min="9" max="9" width="21" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="5"/>
+    <col min="10" max="10" width="14.5" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1320,20 +1365,20 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="16"/>
@@ -1344,7 +1389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1362,16 +1407,16 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="16" t="s">
@@ -1384,16 +1429,16 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="16" t="s">
@@ -1406,35 +1451,35 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="9" t="s">
         <v>16</v>
@@ -1454,7 +1499,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="16">
         <v>1</v>
@@ -1474,7 +1519,7 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="16">
         <f>B10+1</f>
@@ -1495,7 +1540,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="16">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
@@ -1516,7 +1561,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="29.1">
+    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
@@ -1537,7 +1582,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="29.1">
+    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="16">
         <f t="shared" si="0"/>
@@ -1558,7 +1603,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="29.1">
+    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="16">
         <f t="shared" si="0"/>
@@ -1579,7 +1624,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="16">
         <f t="shared" si="0"/>
@@ -1596,7 +1641,7 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1605,7 +1650,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1614,7 +1659,7 @@
       <c r="D18" s="16"/>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1623,7 +1668,7 @@
       <c r="D19" s="16"/>
       <c r="E19" s="18"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1632,7 +1677,7 @@
       <c r="D20" s="16"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1641,7 +1686,7 @@
       <c r="D21" s="16"/>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1650,7 +1695,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1659,7 +1704,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="18"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1668,7 +1713,7 @@
       <c r="D24" s="16"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1677,7 +1722,7 @@
       <c r="D25" s="16"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="17"/>
       <c r="C27" s="10" t="s">
         <v>38</v>
@@ -1708,22 +1753,22 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5"/>
-    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="5" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="5"/>
-    <col min="9" max="9" width="22.140625" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.5" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.83203125" style="5"/>
+    <col min="9" max="9" width="22.1640625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1733,20 +1778,20 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="16"/>
@@ -1757,7 +1802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -1771,16 +1816,16 @@
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="16" t="s">
@@ -1789,16 +1834,16 @@
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="16" t="s">
@@ -1807,35 +1852,35 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="9" t="s">
         <v>16</v>
@@ -1855,111 +1900,141 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="16">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40" t="s">
+        <v>146</v>
+      </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="16">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40" t="s">
+        <v>146</v>
+      </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="16">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="40" t="s">
+        <v>146</v>
+      </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="40" t="s">
+        <v>146</v>
+      </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40" t="s">
+        <v>151</v>
+      </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="40" t="s">
+        <v>153</v>
+      </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>156</v>
+      </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1968,7 +2043,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1977,7 +2052,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1986,7 +2061,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1995,7 +2070,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2004,7 +2079,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2013,7 +2088,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2022,7 +2097,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2031,7 +2106,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2040,7 +2115,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2049,7 +2124,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="17"/>
       <c r="C28" s="10" t="s">
         <v>38</v>
@@ -2078,23 +2153,23 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5"/>
-    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="5" customWidth="1"/>
     <col min="4" max="4" width="18" style="5" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="5" customWidth="1"/>
-    <col min="6" max="8" width="8.85546875" style="5"/>
-    <col min="9" max="9" width="26.7109375" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="5"/>
+    <col min="5" max="5" width="41.5" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.83203125" style="5"/>
+    <col min="9" max="9" width="26.6640625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2104,20 +2179,20 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="16"/>
@@ -2128,7 +2203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -2146,16 +2221,16 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="16" t="s">
@@ -2168,16 +2243,16 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="16" t="s">
@@ -2190,35 +2265,35 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="9" t="s">
         <v>16</v>
@@ -2238,7 +2313,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="76.5">
+    <row r="10" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="16">
         <v>1</v>
@@ -2256,7 +2331,7 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="76.5">
+    <row r="11" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="16">
         <f>B10+1</f>
@@ -2275,7 +2350,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="15">
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="16">
         <f t="shared" ref="B12:B21" si="0">B11+1</f>
@@ -2294,7 +2369,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="30.75">
+    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
@@ -2313,7 +2388,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="15">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="16">
         <f t="shared" si="0"/>
@@ -2332,7 +2407,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="15">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="16">
         <f t="shared" si="0"/>
@@ -2351,7 +2426,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="15">
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="16">
         <f t="shared" si="0"/>
@@ -2370,7 +2445,7 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:10" ht="45.75">
+    <row r="17" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="16">
         <f t="shared" si="0"/>
@@ -2389,7 +2464,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:10" ht="15">
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="16">
         <f t="shared" si="0"/>
@@ -2408,7 +2483,7 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:10" ht="15">
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="16">
         <f t="shared" si="0"/>
@@ -2427,7 +2502,7 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:10" ht="60.75">
+    <row r="20" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="16">
         <f t="shared" si="0"/>
@@ -2446,7 +2521,7 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:10" ht="15">
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="16">
         <f t="shared" si="0"/>
@@ -2465,7 +2540,7 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="10" t="s">
@@ -2481,7 +2556,7 @@
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:10" ht="15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -2493,7 +2568,7 @@
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:10" ht="15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -2505,7 +2580,7 @@
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="1:10" ht="15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -2517,7 +2592,7 @@
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="1:10" ht="15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -2529,7 +2604,7 @@
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="1:10" ht="15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -2541,7 +2616,7 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" ht="15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -2553,7 +2628,7 @@
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10" ht="15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -2565,7 +2640,7 @@
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" ht="15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -2577,7 +2652,7 @@
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10" ht="15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -2610,24 +2685,24 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView zoomScale="128" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="128" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5"/>
-    <col min="2" max="2" width="12.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="62.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="5" customWidth="1"/>
-    <col min="7" max="8" width="8.85546875" style="5"/>
-    <col min="9" max="9" width="26.7109375" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="62.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="8.83203125" style="5"/>
+    <col min="9" max="9" width="26.6640625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2637,20 +2712,20 @@
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="16"/>
@@ -2661,7 +2736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -2679,16 +2754,16 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="16" t="s">
@@ -2701,16 +2776,16 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="16" t="s">
@@ -2723,23 +2798,23 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="9" t="s">
         <v>16</v>
@@ -2761,7 +2836,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="16">
         <v>1</v>
@@ -2772,7 +2847,7 @@
       <c r="D10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="19" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -2783,7 +2858,7 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="60.75">
+    <row r="11" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="16">
         <f>B10+1</f>
@@ -2806,7 +2881,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="30.75">
+    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="16">
         <f t="shared" ref="B12:B28" si="0">B11+1</f>
@@ -2829,7 +2904,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="30.75">
+    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
@@ -2852,7 +2927,7 @@
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
     </row>
-    <row r="14" spans="1:10" ht="45.75">
+    <row r="14" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="16">
         <f t="shared" si="0"/>
@@ -2861,7 +2936,7 @@
       <c r="C14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="19" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2875,7 +2950,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="60.75">
+    <row r="15" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="16">
         <f t="shared" si="0"/>
@@ -2884,13 +2959,13 @@
       <c r="C15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="19" t="s">
         <v>97</v>
       </c>
       <c r="G15" s="17"/>
@@ -2898,7 +2973,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="60.75">
+    <row r="16" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="16">
         <f t="shared" si="0"/>
@@ -2913,7 +2988,7 @@
       <c r="E16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="19" t="s">
         <v>101</v>
       </c>
       <c r="G16" s="17"/>
@@ -2921,7 +2996,7 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:10" ht="30.75">
+    <row r="17" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="16">
         <f t="shared" si="0"/>
@@ -2933,7 +3008,7 @@
       <c r="D17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="19" t="s">
         <v>104</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -2944,7 +3019,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:10" ht="76.5">
+    <row r="18" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="16">
         <f t="shared" si="0"/>
@@ -2967,7 +3042,7 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:10" ht="45.75">
+    <row r="19" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="16">
         <f t="shared" si="0"/>
@@ -2990,7 +3065,7 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:10" ht="45.75">
+    <row r="20" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="16">
         <f t="shared" si="0"/>
@@ -3013,22 +3088,22 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:10" ht="45.75">
+    <row r="21" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="21" t="s">
         <v>115</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="22" t="s">
         <v>117</v>
       </c>
       <c r="G21" s="17"/>
@@ -3036,22 +3111,22 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:10" ht="60.75">
+    <row r="22" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="21" t="s">
         <v>115</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="22" t="s">
         <v>117</v>
       </c>
       <c r="G22" s="17"/>
@@ -3059,22 +3134,22 @@
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
     </row>
-    <row r="23" spans="1:10" ht="45.75">
+    <row r="23" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="22" t="s">
         <v>115</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="22" t="s">
         <v>117</v>
       </c>
       <c r="G23" s="17"/>
@@ -3082,7 +3157,7 @@
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
     </row>
-    <row r="24" spans="1:10" ht="76.5">
+    <row r="24" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="16">
         <f t="shared" si="0"/>
@@ -3094,10 +3169,10 @@
       <c r="D24" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="31" t="s">
+      <c r="F24" s="19" t="s">
         <v>127</v>
       </c>
       <c r="G24" s="17"/>
@@ -3105,7 +3180,7 @@
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
     </row>
-    <row r="25" spans="1:10" ht="60.75">
+    <row r="25" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="16">
         <f t="shared" si="0"/>
@@ -3128,7 +3203,7 @@
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
     </row>
-    <row r="26" spans="1:10" ht="45.75">
+    <row r="26" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="16">
         <f t="shared" si="0"/>
@@ -3151,7 +3226,7 @@
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
     </row>
-    <row r="27" spans="1:10" ht="90.75" customHeight="1">
+    <row r="27" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="16">
         <f t="shared" si="0"/>
@@ -3174,7 +3249,7 @@
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
     </row>
-    <row r="28" spans="1:10" ht="76.5">
+    <row r="28" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="B28" s="16">
         <f t="shared" si="0"/>
@@ -3197,7 +3272,7 @@
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
     </row>
-    <row r="29" spans="1:10" ht="15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -3209,14 +3284,14 @@
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
     </row>
-    <row r="30" spans="1:10" ht="30.75" customHeight="1">
+    <row r="30" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="36" t="s">
         <v>144</v>
       </c>
       <c r="D30" s="37"/>
-      <c r="E30" s="35">
+      <c r="E30" s="23">
         <v>0.5</v>
       </c>
       <c r="F30" s="15"/>
@@ -3225,7 +3300,7 @@
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
     </row>
-    <row r="31" spans="1:10" ht="15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -3237,7 +3312,7 @@
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
     </row>
-    <row r="32" spans="1:10" ht="15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -3251,12 +3326,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
